--- a/cucumber-for-appian/src/test/resources/testdata/01_SMB_End2End.xlsx
+++ b/cucumber-for-appian/src/test/resources/testdata/01_SMB_End2End.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\ORIXAutoExcel\cucumber-for-appian\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68136C65-37F5-49D2-BC82-08C78F3613DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB5983B-2B03-4CC4-B63C-84AF9DB11B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" xr2:uid="{25A2403C-A232-4567-AEA7-838C07E97658}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="873" xr2:uid="{25A2403C-A232-4567-AEA7-838C07E97658}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="13" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="208">
-  <si>
-    <t>Vehicle Category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="265">
   <si>
     <t>Passenger cars including electric vehicles</t>
   </si>
@@ -194,12 +191,6 @@
     <t>Passenger or Light Commercial Vehicle</t>
   </si>
   <si>
-    <t>RequestAQuote</t>
-  </si>
-  <si>
-    <t>Request A Quote</t>
-  </si>
-  <si>
     <t>Yes, it is for a new asset</t>
   </si>
   <si>
@@ -234,10 +225,6 @@
   </si>
   <si>
     <t>Is your quote from a Dealer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Total GST</t>
   </si>
   <si>
     <t>What services would you like included with your quote?</t>
@@ -353,30 +340,9 @@
     <t>No, it is for a used asset</t>
   </si>
   <si>
-    <t>Audi Hatch</t>
-  </si>
-  <si>
-    <t>$105,000</t>
-  </si>
-  <si>
-    <t>$10,000</t>
-  </si>
-  <si>
-    <t>Monthly in Arrears</t>
-  </si>
-  <si>
     <t>24 Months</t>
   </si>
   <si>
-    <t>AUDI</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>TFSI Ambition</t>
-  </si>
-  <si>
     <t>AUDIA1VIN12345678</t>
   </si>
   <si>
@@ -416,9 +382,6 @@
     <t>Learners Permit</t>
   </si>
   <si>
-    <t>Car Licence ©</t>
-  </si>
-  <si>
     <t>QLD</t>
   </si>
   <si>
@@ -434,268 +397,485 @@
     <t>TC004</t>
   </si>
   <si>
+    <t>ScenarioId</t>
+  </si>
+  <si>
+    <t>D:\ORIX_AUS\UploadDocs\Rental_Agreement_Document.pdf</t>
+  </si>
+  <si>
+    <t>Quote Document</t>
+  </si>
+  <si>
+    <t>D:\ORIX_AUS\UploadDocs\Quote_Document.pdf</t>
+  </si>
+  <si>
+    <t>What type of asset are you seeking to finance?</t>
+  </si>
+  <si>
+    <t>Do you have a specific passenger or light commercial vehicle in mind?</t>
+  </si>
+  <si>
+    <t>Is the passenger or light commercial vehicle new?</t>
+  </si>
+  <si>
+    <t>What product suits you best?</t>
+  </si>
+  <si>
+    <t>Engine Number</t>
+  </si>
+  <si>
+    <t>TOYOTAENG123456</t>
+  </si>
+  <si>
+    <t>Other Comments</t>
+  </si>
+  <si>
+    <t>Comments: TOYOTA Passenger cars including electric vehicles</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>New Application[2]</t>
+  </si>
+  <si>
+    <t>Application Number</t>
+  </si>
+  <si>
+    <t>Quote Number</t>
+  </si>
+  <si>
+    <t>Application Status</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last Updated User</t>
+  </si>
+  <si>
+    <t>71kWh AWD</t>
+  </si>
+  <si>
+    <t>Industry ANZSIC Code</t>
+  </si>
+  <si>
+    <t>Business Background</t>
+  </si>
+  <si>
+    <t>darren</t>
+  </si>
+  <si>
+    <t>davies</t>
+  </si>
+  <si>
+    <t>27/05/1981</t>
+  </si>
+  <si>
+    <t>34 Rochester Dr, Mindarie WA 6030</t>
+  </si>
+  <si>
+    <t>Citizenship Status</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Client or Applicant</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Channel Specialist</t>
+  </si>
+  <si>
+    <t>SMBone Specialist</t>
+  </si>
+  <si>
+    <t>Funding Value</t>
+  </si>
+  <si>
+    <t>$58,225.00</t>
+  </si>
+  <si>
+    <t>${TC001.Application Number}</t>
+  </si>
+  <si>
+    <t>${TC001.Quote Number}</t>
+  </si>
+  <si>
+    <t>${TC001.Client or Applicant}</t>
+  </si>
+  <si>
+    <t>${TC001.Last Updated User}</t>
+  </si>
+  <si>
+    <t>GST Registration Date</t>
+  </si>
+  <si>
+    <t>27/04/2019</t>
+  </si>
+  <si>
+    <t>Balloon Payment</t>
+  </si>
+  <si>
+    <t>$16,800.00</t>
+  </si>
+  <si>
+    <t>Total Cost of Loan</t>
+  </si>
+  <si>
+    <t>$66,629.87</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>$1,378.66</t>
+  </si>
+  <si>
+    <t>Specific Asset</t>
+  </si>
+  <si>
+    <t>New Asset</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Pricing Type</t>
+  </si>
+  <si>
+    <t>Dealer Pricing</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Monthly GST</t>
+  </si>
+  <si>
+    <t>$0.50</t>
+  </si>
+  <si>
+    <t>Total GST</t>
+  </si>
+  <si>
+    <t>Deposit Percentage</t>
+  </si>
+  <si>
+    <t>2.68%</t>
+  </si>
+  <si>
+    <t>Balloon Percentage</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Proceeded</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Dealer Quote Document</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Reason for Decline</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Serviceability is not established</t>
+  </si>
+  <si>
+    <t>Automation Introducer</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Annual Usage</t>
+  </si>
+  <si>
+    <t>Residual Value %</t>
+  </si>
+  <si>
+    <t>Total Cost of Accessories (excl GST)</t>
+  </si>
+  <si>
+    <t>Plate Cost (excl GST)</t>
+  </si>
+  <si>
+    <t>Discounts (excl GST)</t>
+  </si>
+  <si>
+    <t>Stamp Duty (excl GST)</t>
+  </si>
+  <si>
+    <t>Luxury Car Tax (excl GST)</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Finance Lease without Services</t>
-  </si>
-  <si>
-    <t>ScenarioId</t>
-  </si>
-  <si>
-    <t>SearchClient</t>
-  </si>
-  <si>
-    <t>Search[2]</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>File Upload</t>
-  </si>
-  <si>
-    <t>D:\ORIX_AUS\UploadDocs\Rental_Agreement_Document.pdf</t>
-  </si>
-  <si>
-    <t>Quote Document</t>
-  </si>
-  <si>
-    <t>D:\ORIX_AUS\UploadDocs\Quote_Document.pdf</t>
-  </si>
-  <si>
-    <t>What type of asset are you seeking to finance?</t>
-  </si>
-  <si>
-    <t>Do you have a specific passenger or light commercial vehicle in mind?</t>
-  </si>
-  <si>
-    <t>Is the passenger or light commercial vehicle new?</t>
-  </si>
-  <si>
-    <t>What product suits you best?</t>
-  </si>
-  <si>
-    <t>Vehicle Description</t>
-  </si>
-  <si>
-    <t>Output Vehicle Category</t>
-  </si>
-  <si>
-    <t>Output Vehicle Description</t>
-  </si>
-  <si>
-    <t>Engine Number</t>
-  </si>
-  <si>
-    <t>TOYOTAENG123456</t>
-  </si>
-  <si>
-    <t>AUDIA1ENG123456</t>
-  </si>
-  <si>
-    <t>Other Comments</t>
-  </si>
-  <si>
-    <t>Comments: TOYOTA Passenger cars including electric vehicles</t>
-  </si>
-  <si>
-    <t>Comments: AUDI Passenger cars including electric vehicles</t>
-  </si>
-  <si>
-    <t>Application Type</t>
-  </si>
-  <si>
-    <t>New Application[2]</t>
-  </si>
-  <si>
-    <t>Application Number</t>
-  </si>
-  <si>
-    <t>Quote Number</t>
-  </si>
-  <si>
-    <t>Application Status</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last Updated User</t>
-  </si>
-  <si>
-    <t>71kWh AWD</t>
-  </si>
-  <si>
-    <t>Industry ANZSIC Code</t>
-  </si>
-  <si>
-    <t>Business Background</t>
-  </si>
-  <si>
-    <t>darren</t>
-  </si>
-  <si>
-    <t>davies</t>
-  </si>
-  <si>
-    <t>27/05/1981</t>
-  </si>
-  <si>
-    <t>34 Rochester Dr, Mindarie WA 6030</t>
-  </si>
-  <si>
-    <t>Citizenship Status</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Client or Applicant</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Andrew Wadham</t>
-  </si>
-  <si>
-    <t>Channel Specialist</t>
-  </si>
-  <si>
-    <t>SMBone Specialist</t>
-  </si>
-  <si>
-    <t>Funding Value</t>
-  </si>
-  <si>
-    <t>$58,225.00</t>
-  </si>
-  <si>
-    <t>${TC001.Application Number}</t>
-  </si>
-  <si>
-    <t>${TC001.Quote Number}</t>
-  </si>
-  <si>
-    <t>${TC001.Client or Applicant}</t>
-  </si>
-  <si>
-    <t>${TC001.Last Updated User}</t>
-  </si>
-  <si>
-    <t>GST Registration Date</t>
-  </si>
-  <si>
-    <t>27/04/2019</t>
-  </si>
-  <si>
-    <t>Balloon Payment</t>
-  </si>
-  <si>
-    <t>$16,800.00</t>
-  </si>
-  <si>
-    <t>Total Cost of Loan</t>
-  </si>
-  <si>
-    <t>$66,629.87</t>
-  </si>
-  <si>
-    <t>Monthly Payment</t>
-  </si>
-  <si>
-    <t>$1,378.66</t>
-  </si>
-  <si>
-    <t>Specific Asset</t>
-  </si>
-  <si>
-    <t>New Asset</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Pricing Type</t>
-  </si>
-  <si>
-    <t>Dealer Pricing</t>
-  </si>
-  <si>
-    <t>Asset Type</t>
-  </si>
-  <si>
-    <t>Monthly GST</t>
-  </si>
-  <si>
-    <t>$0.50</t>
-  </si>
-  <si>
-    <t>Total GST</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>Deposit Percentage</t>
-  </si>
-  <si>
-    <t>2.68%</t>
-  </si>
-  <si>
-    <t>Balloon Percentage</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Proceeded</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Dealer Quote Document</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Reason for Decline</t>
-  </si>
-  <si>
-    <t>Declined</t>
-  </si>
-  <si>
-    <t>Serviceability is not established</t>
-  </si>
-  <si>
-    <t>APP-478</t>
-  </si>
-  <si>
-    <t>SMB-00000706
-SMB-00000706</t>
-  </si>
-  <si>
-    <t>24 Dec 2025 04:12 PM</t>
+Registration Fee (excl GST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CTPI Fee (excl GST)</t>
+  </si>
+  <si>
+    <t>Delivery Fee (excl GST)</t>
+  </si>
+  <si>
+    <t>Delivery State</t>
+  </si>
+  <si>
+    <t>Third Party Accessories</t>
+  </si>
+  <si>
+    <t>Standard Accessories</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Medium/Heavy Transport Vehicle</t>
+  </si>
+  <si>
+    <t>Finance Lease without Services</t>
+  </si>
+  <si>
+    <t>Medium and heavy commercial vehicles (excluding specialised vehicles or those with specialised bodies)</t>
+  </si>
+  <si>
+    <t>Medium and heavy commercial vehicles</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>$5,50,000</t>
+  </si>
+  <si>
+    <t>${TC003.Application Number}</t>
+  </si>
+  <si>
+    <t>${TC003.Quote Number}</t>
+  </si>
+  <si>
+    <t>${TC003.Client or Applicant}</t>
+  </si>
+  <si>
+    <t>${TC003.Last Updated User}</t>
+  </si>
+  <si>
+    <t>APP-514</t>
+  </si>
+  <si>
+    <t>SMB-00000754
+SMB-00000754</t>
+  </si>
+  <si>
+    <t>12 Jan 2026 05:40 PM</t>
+  </si>
+  <si>
+    <t>Do you have a specific medium/heavy transport vehicle in mind?</t>
+  </si>
+  <si>
+    <t>Is the medium/heavy transport vehicle new?</t>
+  </si>
+  <si>
+    <t>Vehicle or Asset Category</t>
+  </si>
+  <si>
+    <t>Output Vehicle or Asset Category</t>
+  </si>
+  <si>
+    <t>Vehicle or Asset Description</t>
+  </si>
+  <si>
+    <t>Output Vehicle or Asset Description</t>
+  </si>
+  <si>
+    <t>Caravans</t>
+  </si>
+  <si>
+    <t>$42,000</t>
+  </si>
+  <si>
+    <t>Car Licence (C)</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>D:\ORIX_AUS\UploadDocs\Financial_Statement_Document.pdf</t>
+  </si>
+  <si>
+    <t>No[7]</t>
+  </si>
+  <si>
+    <t>Rental Agreement</t>
+  </si>
+  <si>
+    <t>Financial Statements</t>
+  </si>
+  <si>
+    <t>0411203205</t>
+  </si>
+  <si>
+    <t>Monthly Repayment</t>
+  </si>
+  <si>
+    <t>$571,348.65</t>
+  </si>
+  <si>
+    <t>$15,177.37</t>
+  </si>
+  <si>
+    <t>$663,539.04</t>
+  </si>
+  <si>
+    <t>Total Cost of Lease</t>
+  </si>
+  <si>
+    <t>Monthly Rental</t>
+  </si>
+  <si>
+    <t>Private Sale</t>
+  </si>
+  <si>
+    <t>$1,379.76</t>
+  </si>
+  <si>
+    <t>Residual Percentage</t>
+  </si>
+  <si>
+    <t>54.32%</t>
+  </si>
+  <si>
+    <t>Conditional Approval</t>
+  </si>
+  <si>
+    <t>Conditions of Approval</t>
+  </si>
+  <si>
+    <t>Copy of current council rates notice to be provided to confirm property ownership.</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>$550,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$42,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HONDA CR-V </t>
+  </si>
+  <si>
+    <t>APP-543</t>
+  </si>
+  <si>
+    <t>SMB-00000781
+SMB-00000781</t>
+  </si>
+  <si>
+    <t>13 Jan 2026 01:37 AM</t>
+  </si>
+  <si>
+    <t>APP-546</t>
+  </si>
+  <si>
+    <t>SMB-00000786
+SMB-00000786</t>
+  </si>
+  <si>
+    <t>14 Jan 2026 02:54 PM</t>
+  </si>
+  <si>
+    <t>APP-547</t>
+  </si>
+  <si>
+    <t>SMB-00000787
+SMB-00000787</t>
+  </si>
+  <si>
+    <t>14 Jan 2026 09:42 PM</t>
+  </si>
+  <si>
+    <t>APP-548</t>
+  </si>
+  <si>
+    <t>SMB-00000788
+SMB-00000788</t>
+  </si>
+  <si>
+    <t>14 Jan 2026 09:59 PM</t>
+  </si>
+  <si>
+    <t>APP-561</t>
+  </si>
+  <si>
+    <t>SMB-00000811
+SMB-00000811</t>
+  </si>
+  <si>
+    <t>22 Jan 2026 06:09 PM</t>
+  </si>
+  <si>
+    <t>APP-562</t>
+  </si>
+  <si>
+    <t>SMB-00000812
+SMB-00000812</t>
+  </si>
+  <si>
+    <t>22 Jan 2026 07:58 PM</t>
+  </si>
+  <si>
+    <t>APP-563</t>
+  </si>
+  <si>
+    <t>SMB-00000813
+SMB-00000813</t>
+  </si>
+  <si>
+    <t>22 Jan 2026 09:28 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,8 +911,28 @@
       <name val="Univers"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +942,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -804,6 +1010,24 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,1542 +1363,1715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282027D-BEC0-4DD3-B183-0B5114D5717E}">
-  <dimension ref="A1:CW23"/>
+  <dimension ref="A1:DT25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="CV3" sqref="CV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="18" width="10.88671875" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="21" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="14.5546875" customWidth="1"/>
-    <col min="31" max="31" width="6.88671875" customWidth="1"/>
-    <col min="32" max="32" width="5.77734375" customWidth="1"/>
-    <col min="33" max="33" width="4.33203125" customWidth="1"/>
-    <col min="34" max="34" width="4.44140625" customWidth="1"/>
-    <col min="35" max="35" width="4.77734375" customWidth="1"/>
-    <col min="36" max="36" width="4.88671875" customWidth="1"/>
-    <col min="37" max="37" width="5.21875" customWidth="1"/>
-    <col min="38" max="38" width="9.88671875" customWidth="1"/>
-    <col min="39" max="39" width="8.44140625" customWidth="1"/>
-    <col min="40" max="43" width="12.109375" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" customWidth="1"/>
-    <col min="45" max="45" width="9.88671875" customWidth="1"/>
-    <col min="46" max="46" width="12.109375" customWidth="1"/>
-    <col min="47" max="47" width="21.44140625" customWidth="1"/>
-    <col min="48" max="48" width="13.21875" customWidth="1"/>
-    <col min="49" max="49" width="18.33203125" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" customWidth="1"/>
-    <col min="51" max="51" width="7.21875" customWidth="1"/>
-    <col min="52" max="52" width="7.77734375" customWidth="1"/>
-    <col min="53" max="53" width="10.44140625" customWidth="1"/>
-    <col min="54" max="54" width="10.109375" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" customWidth="1"/>
-    <col min="56" max="56" width="7.6640625" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" customWidth="1"/>
-    <col min="58" max="58" width="10.109375" customWidth="1"/>
-    <col min="59" max="59" width="12" customWidth="1"/>
-    <col min="60" max="60" width="12.109375" customWidth="1"/>
-    <col min="61" max="61" width="8.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.109375" customWidth="1"/>
-    <col min="63" max="63" width="9.21875" customWidth="1"/>
-    <col min="64" max="64" width="12.109375" customWidth="1"/>
-    <col min="65" max="65" width="13.5546875" customWidth="1"/>
-    <col min="66" max="66" width="10.109375" customWidth="1"/>
-    <col min="67" max="67" width="23.109375" customWidth="1"/>
-    <col min="68" max="68" width="7.44140625" customWidth="1"/>
-    <col min="69" max="69" width="10.33203125" customWidth="1"/>
-    <col min="70" max="70" width="8.5546875" customWidth="1"/>
-    <col min="71" max="71" width="9.6640625" customWidth="1"/>
-    <col min="72" max="72" width="14.6640625" customWidth="1"/>
-    <col min="73" max="73" width="19.44140625" customWidth="1"/>
-    <col min="74" max="74" width="14.6640625" customWidth="1"/>
-    <col min="75" max="75" width="32.109375" customWidth="1"/>
-    <col min="76" max="100" width="14.6640625" customWidth="1"/>
-    <col min="101" max="101" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.109375"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875"/>
+    <col min="4" max="4" customWidth="true" width="4.21875"/>
+    <col min="5" max="5" customWidth="true" width="7.0"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125"/>
+    <col min="7" max="7" customWidth="true" width="12.77734375"/>
+    <col min="8" max="8" customWidth="true" width="30.6640625"/>
+    <col min="9" max="9" customWidth="true" width="9.77734375"/>
+    <col min="10" max="10" customWidth="true" width="19.33203125"/>
+    <col min="11" max="12" customWidth="true" width="8.44140625"/>
+    <col min="13" max="13" customWidth="true" width="9.5546875"/>
+    <col min="14" max="14" customWidth="true" width="17.5546875"/>
+    <col min="15" max="15" customWidth="true" width="10.77734375"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875"/>
+    <col min="17" max="17" customWidth="true" width="14.5546875"/>
+    <col min="18" max="20" customWidth="true" width="11.88671875"/>
+    <col min="21" max="21" customWidth="true" width="14.88671875"/>
+    <col min="22" max="22" customWidth="true" width="8.33203125"/>
+    <col min="23" max="23" customWidth="true" width="11.6640625"/>
+    <col min="24" max="24" customWidth="true" width="9.109375"/>
+    <col min="25" max="25" customWidth="true" width="11.0"/>
+    <col min="26" max="26" customWidth="true" width="8.88671875"/>
+    <col min="27" max="35" customWidth="true" width="6.5546875"/>
+    <col min="37" max="37" customWidth="true" width="8.5546875"/>
+    <col min="38" max="41" customWidth="true" width="8.44140625"/>
+    <col min="43" max="43" customWidth="true" width="6.33203125"/>
+    <col min="44" max="44" customWidth="true" width="14.5546875"/>
+    <col min="45" max="45" customWidth="true" width="6.88671875"/>
+    <col min="46" max="46" customWidth="true" width="5.77734375"/>
+    <col min="47" max="47" customWidth="true" width="4.33203125"/>
+    <col min="48" max="48" customWidth="true" width="4.44140625"/>
+    <col min="49" max="49" customWidth="true" width="4.77734375"/>
+    <col min="50" max="50" customWidth="true" width="4.88671875"/>
+    <col min="51" max="51" customWidth="true" width="5.21875"/>
+    <col min="52" max="52" customWidth="true" width="9.6640625"/>
+    <col min="53" max="53" customWidth="true" width="9.88671875"/>
+    <col min="54" max="54" customWidth="true" width="8.44140625"/>
+    <col min="55" max="57" customWidth="true" width="12.109375"/>
+    <col min="58" max="58" customWidth="true" width="13.6640625"/>
+    <col min="59" max="59" customWidth="true" width="15.33203125"/>
+    <col min="60" max="61" customWidth="true" width="21.33203125"/>
+    <col min="62" max="62" customWidth="true" width="15.88671875"/>
+    <col min="63" max="63" customWidth="true" width="21.44140625"/>
+    <col min="64" max="64" customWidth="true" width="18.6640625"/>
+    <col min="65" max="65" customWidth="true" width="18.33203125"/>
+    <col min="66" max="66" customWidth="true" width="19.109375"/>
+    <col min="67" max="67" customWidth="true" width="7.21875"/>
+    <col min="68" max="68" customWidth="true" width="7.77734375"/>
+    <col min="69" max="69" customWidth="true" width="12.6640625"/>
+    <col min="70" max="70" customWidth="true" width="10.109375"/>
+    <col min="71" max="71" customWidth="true" width="11.88671875"/>
+    <col min="72" max="72" customWidth="true" width="7.6640625"/>
+    <col min="73" max="73" customWidth="true" width="10.33203125"/>
+    <col min="74" max="74" customWidth="true" width="10.109375"/>
+    <col min="75" max="75" customWidth="true" width="12.0"/>
+    <col min="76" max="76" customWidth="true" width="12.109375"/>
+    <col min="77" max="77" customWidth="true" width="8.6640625"/>
+    <col min="78" max="78" customWidth="true" width="10.109375"/>
+    <col min="79" max="79" customWidth="true" width="9.21875"/>
+    <col min="80" max="80" customWidth="true" width="12.109375"/>
+    <col min="81" max="81" customWidth="true" width="13.5546875"/>
+    <col min="82" max="82" customWidth="true" width="10.109375"/>
+    <col min="83" max="84" customWidth="true" width="23.109375"/>
+    <col min="85" max="85" customWidth="true" width="7.44140625"/>
+    <col min="86" max="86" customWidth="true" width="10.33203125"/>
+    <col min="87" max="87" customWidth="true" width="8.5546875"/>
+    <col min="88" max="88" customWidth="true" width="9.6640625"/>
+    <col min="89" max="89" customWidth="true" width="13.6640625"/>
+    <col min="90" max="90" customWidth="true" width="11.109375"/>
+    <col min="91" max="91" customWidth="true" width="14.6640625"/>
+    <col min="92" max="92" customWidth="true" width="28.44140625"/>
+    <col min="93" max="93" customWidth="true" width="25.6640625"/>
+    <col min="94" max="94" customWidth="true" width="14.6640625"/>
+    <col min="95" max="95" customWidth="true" width="32.109375"/>
+    <col min="96" max="123" customWidth="true" width="14.6640625"/>
+    <col min="124" max="124" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:124" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CX1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT1" s="3"/>
+    </row>
+    <row r="2" spans="1:124" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CW1" s="3"/>
-    </row>
-    <row r="2" spans="1:101" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C2" s="5">
         <v>68173780899</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="V2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="5">
+        <v>82</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="5">
         <v>5</v>
       </c>
-      <c r="X2" s="5">
+      <c r="Z2" s="5">
         <v>30</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
+      <c r="AJ2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AL2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
       <c r="AP2" s="5" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>68173780899</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>157</v>
+        <v>8</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="BG2" s="5">
+        <v>68173780899</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW2" s="5">
         <v>61400000000</v>
       </c>
-      <c r="BH2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL2" s="5">
+      <c r="BX2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB2" s="5">
         <v>88310877</v>
       </c>
-      <c r="BM2" s="5" t="s">
+      <c r="CC2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="CS2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CZ2" s="10"/>
+      <c r="DA2" s="10"/>
+      <c r="DB2" s="10"/>
+      <c r="DC2" s="10"/>
+      <c r="DD2" s="10"/>
+      <c r="DE2" s="10"/>
+      <c r="DF2" s="10"/>
+      <c r="DG2" s="10"/>
+      <c r="DH2" s="10"/>
+      <c r="DI2" s="10"/>
+      <c r="DJ2" s="10"/>
+      <c r="DK2" s="10"/>
+      <c r="DL2" s="10"/>
+      <c r="DM2" s="10"/>
+      <c r="DN2" s="10"/>
+      <c r="DO2" s="10"/>
+      <c r="DP2" s="10"/>
+      <c r="DQ2" s="10"/>
+      <c r="DR2" s="10"/>
+      <c r="DS2" s="10"/>
+      <c r="DT2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BN2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BP2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:124" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BQ2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BZ2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="CA2" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="CB2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="CD2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF2" s="10"/>
-      <c r="CG2" s="10"/>
-      <c r="CH2" s="10"/>
-      <c r="CI2" s="10"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
-      <c r="CL2" s="10"/>
-      <c r="CM2" s="10"/>
-      <c r="CN2" s="10"/>
-      <c r="CO2" s="10"/>
-      <c r="CP2" s="10"/>
-      <c r="CQ2" s="10"/>
-      <c r="CR2" s="10"/>
-      <c r="CS2" s="10"/>
-      <c r="CT2" s="10"/>
-      <c r="CU2" s="10"/>
-      <c r="CV2" s="10"/>
-      <c r="CW2" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:101" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>68173780899</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="V3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="5">
+        <v>82</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="5">
         <v>5</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Z3" s="5">
         <v>30</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
+      <c r="AJ3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AL3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
       <c r="AP3" s="5" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>68173780899</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG3" s="5">
+        <v>68173780899</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW3" s="5">
+        <v>61400000000</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>88310877</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CR3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="CS3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CX3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CZ3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DA3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="BB3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF3" s="5" t="s">
+      <c r="DB3" s="10"/>
+      <c r="DC3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BG3" s="5">
-        <v>61400000000</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL3" s="5">
-        <v>88310877</v>
-      </c>
-      <c r="BM3" s="5" t="s">
+      <c r="DD3" s="10"/>
+      <c r="DE3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="DG3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="DH3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL3" s="10"/>
+      <c r="DM3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DP3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR3" s="10"/>
+      <c r="DS3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="DT3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BN3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:124" s="15" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="13">
+        <v>39008846636</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG4" s="13">
+        <v>39008846636</v>
+      </c>
+      <c r="BH4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW4" s="13">
+        <v>411203205</v>
+      </c>
+      <c r="BX4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB4" s="13">
+        <v>13501975</v>
+      </c>
+      <c r="CC4" s="13"/>
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="CL4" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="CR4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="CV4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CW4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="DH4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ4" s="10"/>
+      <c r="DK4" s="10"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="10"/>
+      <c r="DN4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DP4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR4" s="10"/>
+      <c r="DS4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="DT4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BO3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BP3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BR3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:124" s="15" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BS3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT3" s="5" t="s">
+      <c r="C5" s="13">
+        <v>39008846636</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BX3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="CC3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="CD3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF3" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="CG3" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CI3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="CK3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="CL3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="CN3" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="CO3" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="CP3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ3" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="CR3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="CS3" s="10" t="s">
+      <c r="J5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="CT3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU3" s="10" t="s">
+      <c r="N5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="CV3" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW3" s="5" t="s">
+      <c r="S5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL5" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:101" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="AM5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5">
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13">
         <v>39008846636</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="BH5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="BK5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="BL5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="5">
-        <v>5</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5" t="s">
+      <c r="BM5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" s="5" t="s">
+      <c r="BN5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="BO5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="BP5" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="BQ5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AE4" s="5">
-        <v>2011</v>
-      </c>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM4" s="5" t="s">
+      <c r="BR5" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="BS5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW5" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="BX5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AO4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>39008846636</v>
-      </c>
-      <c r="AS4" s="5" t="s">
+      <c r="BZ5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="CB5" s="13">
+        <v>13501975</v>
+      </c>
+      <c r="CC5" s="13"/>
+      <c r="CD5" s="13"/>
+      <c r="CE5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AU4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC4" s="6">
-        <v>29733</v>
-      </c>
-      <c r="BD4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG4" s="5">
-        <v>411203205</v>
-      </c>
-      <c r="BH4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL4" s="5">
-        <v>13501975</v>
-      </c>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="CD4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF4" s="10"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10"/>
-      <c r="CI4" s="10"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
-      <c r="CL4" s="10"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="10"/>
-      <c r="CQ4" s="10"/>
-      <c r="CR4" s="10"/>
-      <c r="CS4" s="10"/>
-      <c r="CT4" s="10"/>
-      <c r="CU4" s="10"/>
-      <c r="CV4" s="10"/>
-      <c r="CW4" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:101" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5">
-        <v>39008846636</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="5">
-        <v>5</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>2011</v>
-      </c>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>39008846636</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC5" s="6">
-        <v>29733</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG5" s="5">
-        <v>411203205</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL5" s="5">
-        <v>13501975</v>
-      </c>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5"/>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
+      <c r="CG5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK5" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="CL5" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN5" s="13"/>
+      <c r="CO5" s="13"/>
       <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
+      <c r="CQ5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CS5" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="CT5" s="5"/>
       <c r="CU5" s="5"/>
-      <c r="CV5" s="5"/>
+      <c r="CV5" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="CW5" s="5" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="DE5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="DF5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="DG5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="DH5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="DI5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="DJ5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="DK5" s="10"/>
+      <c r="DL5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM5" s="10"/>
+      <c r="DN5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DP5" s="10"/>
+      <c r="DQ5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="DR5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="DS5" s="10"/>
+      <c r="DT5" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:101" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5">
-        <v>39008846636</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="6" spans="1:124" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="5">
-        <v>5</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>2011</v>
-      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>39008846636</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC6" s="6">
-        <v>29733</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG6" s="5">
-        <v>411203205</v>
-      </c>
-      <c r="BH6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL6" s="5">
-        <v>13501975</v>
-      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
-      <c r="BO6" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
       <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
       <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
+      <c r="BW6" s="16"/>
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
+      <c r="BZ6" s="13"/>
       <c r="CA6" s="5"/>
       <c r="CB6" s="5"/>
       <c r="CC6" s="5"/>
@@ -2697,217 +3094,284 @@
       <c r="CT6" s="5"/>
       <c r="CU6" s="5"/>
       <c r="CV6" s="5"/>
-      <c r="CW6" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
+      <c r="DD6" s="10"/>
+      <c r="DE6" s="10"/>
+      <c r="DF6" s="10"/>
+      <c r="DG6" s="10"/>
+      <c r="DH6" s="10"/>
+      <c r="DI6" s="10"/>
+      <c r="DJ6" s="10"/>
+      <c r="DK6" s="10"/>
+      <c r="DL6" s="10"/>
+      <c r="DM6" s="10"/>
+      <c r="DN6" s="10"/>
+      <c r="DO6" s="10"/>
+      <c r="DP6" s="10"/>
+      <c r="DQ6" s="10"/>
+      <c r="DR6" s="10"/>
+      <c r="DS6" s="10"/>
+      <c r="DT6" s="5"/>
     </row>
-    <row r="7" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="8"/>
-      <c r="BR7" s="8"/>
-      <c r="BS7" s="8"/>
-      <c r="BT7" s="8"/>
-      <c r="BU7" s="8"/>
-      <c r="BV7" s="8"/>
-      <c r="BW7" s="8"/>
-      <c r="BX7" s="8"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8"/>
-      <c r="CA7" s="8"/>
-      <c r="CB7" s="8"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="8"/>
-      <c r="CE7" s="8"/>
-      <c r="CF7" s="8"/>
-      <c r="CG7" s="8"/>
-      <c r="CH7" s="8"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="8"/>
-      <c r="CM7" s="8"/>
-      <c r="CN7" s="8"/>
-      <c r="CO7" s="8"/>
-      <c r="CP7" s="8"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="8"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="8"/>
-      <c r="CU7" s="8"/>
-      <c r="CV7" s="8"/>
-      <c r="CW7" s="8"/>
+    <row r="7" spans="1:124" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="13"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="5"/>
+      <c r="DI7" s="5"/>
+      <c r="DJ7" s="5"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
+      <c r="DM7" s="5"/>
+      <c r="DN7" s="5"/>
+      <c r="DO7" s="5"/>
+      <c r="DP7" s="5"/>
+      <c r="DQ7" s="5"/>
+      <c r="DR7" s="5"/>
+      <c r="DS7" s="5"/>
+      <c r="DT7" s="5"/>
     </row>
-    <row r="8" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="8"/>
-      <c r="BR8" s="8"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="8"/>
-      <c r="BV8" s="8"/>
-      <c r="BW8" s="8"/>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8"/>
-      <c r="CG8" s="8"/>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="8"/>
-      <c r="CM8" s="8"/>
-      <c r="CN8" s="8"/>
-      <c r="CO8" s="8"/>
-      <c r="CP8" s="8"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="8"/>
-      <c r="CT8" s="8"/>
-      <c r="CU8" s="8"/>
-      <c r="CV8" s="8"/>
-      <c r="CW8" s="8"/>
+    <row r="8" spans="1:124" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="13"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5"/>
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="5"/>
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+      <c r="DM8" s="5"/>
+      <c r="DN8" s="5"/>
+      <c r="DO8" s="5"/>
+      <c r="DP8" s="5"/>
+      <c r="DQ8" s="5"/>
+      <c r="DR8" s="5"/>
+      <c r="DS8" s="5"/>
+      <c r="DT8" s="5"/>
     </row>
-    <row r="9" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3009,8 +3473,31 @@
       <c r="CU9" s="8"/>
       <c r="CV9" s="8"/>
       <c r="CW9" s="8"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="CZ9" s="8"/>
+      <c r="DA9" s="8"/>
+      <c r="DB9" s="8"/>
+      <c r="DC9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8"/>
+      <c r="DI9" s="8"/>
+      <c r="DJ9" s="8"/>
+      <c r="DK9" s="8"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8"/>
+      <c r="DN9" s="8"/>
+      <c r="DO9" s="8"/>
+      <c r="DP9" s="8"/>
+      <c r="DQ9" s="8"/>
+      <c r="DR9" s="8"/>
+      <c r="DS9" s="8"/>
+      <c r="DT9" s="8"/>
     </row>
-    <row r="10" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3112,8 +3599,31 @@
       <c r="CU10" s="8"/>
       <c r="CV10" s="8"/>
       <c r="CW10" s="8"/>
+      <c r="CX10" s="8"/>
+      <c r="CY10" s="8"/>
+      <c r="CZ10" s="8"/>
+      <c r="DA10" s="8"/>
+      <c r="DB10" s="8"/>
+      <c r="DC10" s="8"/>
+      <c r="DD10" s="8"/>
+      <c r="DE10" s="8"/>
+      <c r="DF10" s="8"/>
+      <c r="DG10" s="8"/>
+      <c r="DH10" s="8"/>
+      <c r="DI10" s="8"/>
+      <c r="DJ10" s="8"/>
+      <c r="DK10" s="8"/>
+      <c r="DL10" s="8"/>
+      <c r="DM10" s="8"/>
+      <c r="DN10" s="8"/>
+      <c r="DO10" s="8"/>
+      <c r="DP10" s="8"/>
+      <c r="DQ10" s="8"/>
+      <c r="DR10" s="8"/>
+      <c r="DS10" s="8"/>
+      <c r="DT10" s="8"/>
     </row>
-    <row r="11" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3215,8 +3725,31 @@
       <c r="CU11" s="8"/>
       <c r="CV11" s="8"/>
       <c r="CW11" s="8"/>
+      <c r="CX11" s="8"/>
+      <c r="CY11" s="8"/>
+      <c r="CZ11" s="8"/>
+      <c r="DA11" s="8"/>
+      <c r="DB11" s="8"/>
+      <c r="DC11" s="8"/>
+      <c r="DD11" s="8"/>
+      <c r="DE11" s="8"/>
+      <c r="DF11" s="8"/>
+      <c r="DG11" s="8"/>
+      <c r="DH11" s="8"/>
+      <c r="DI11" s="8"/>
+      <c r="DJ11" s="8"/>
+      <c r="DK11" s="8"/>
+      <c r="DL11" s="8"/>
+      <c r="DM11" s="8"/>
+      <c r="DN11" s="8"/>
+      <c r="DO11" s="8"/>
+      <c r="DP11" s="8"/>
+      <c r="DQ11" s="8"/>
+      <c r="DR11" s="8"/>
+      <c r="DS11" s="8"/>
+      <c r="DT11" s="8"/>
     </row>
-    <row r="12" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3318,8 +3851,31 @@
       <c r="CU12" s="8"/>
       <c r="CV12" s="8"/>
       <c r="CW12" s="8"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
+      <c r="CZ12" s="8"/>
+      <c r="DA12" s="8"/>
+      <c r="DB12" s="8"/>
+      <c r="DC12" s="8"/>
+      <c r="DD12" s="8"/>
+      <c r="DE12" s="8"/>
+      <c r="DF12" s="8"/>
+      <c r="DG12" s="8"/>
+      <c r="DH12" s="8"/>
+      <c r="DI12" s="8"/>
+      <c r="DJ12" s="8"/>
+      <c r="DK12" s="8"/>
+      <c r="DL12" s="8"/>
+      <c r="DM12" s="8"/>
+      <c r="DN12" s="8"/>
+      <c r="DO12" s="8"/>
+      <c r="DP12" s="8"/>
+      <c r="DQ12" s="8"/>
+      <c r="DR12" s="8"/>
+      <c r="DS12" s="8"/>
+      <c r="DT12" s="8"/>
     </row>
-    <row r="13" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3421,8 +3977,31 @@
       <c r="CU13" s="8"/>
       <c r="CV13" s="8"/>
       <c r="CW13" s="8"/>
+      <c r="CX13" s="8"/>
+      <c r="CY13" s="8"/>
+      <c r="CZ13" s="8"/>
+      <c r="DA13" s="8"/>
+      <c r="DB13" s="8"/>
+      <c r="DC13" s="8"/>
+      <c r="DD13" s="8"/>
+      <c r="DE13" s="8"/>
+      <c r="DF13" s="8"/>
+      <c r="DG13" s="8"/>
+      <c r="DH13" s="8"/>
+      <c r="DI13" s="8"/>
+      <c r="DJ13" s="8"/>
+      <c r="DK13" s="8"/>
+      <c r="DL13" s="8"/>
+      <c r="DM13" s="8"/>
+      <c r="DN13" s="8"/>
+      <c r="DO13" s="8"/>
+      <c r="DP13" s="8"/>
+      <c r="DQ13" s="8"/>
+      <c r="DR13" s="8"/>
+      <c r="DS13" s="8"/>
+      <c r="DT13" s="8"/>
     </row>
-    <row r="14" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3524,8 +4103,31 @@
       <c r="CU14" s="8"/>
       <c r="CV14" s="8"/>
       <c r="CW14" s="8"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
+      <c r="CZ14" s="8"/>
+      <c r="DA14" s="8"/>
+      <c r="DB14" s="8"/>
+      <c r="DC14" s="8"/>
+      <c r="DD14" s="8"/>
+      <c r="DE14" s="8"/>
+      <c r="DF14" s="8"/>
+      <c r="DG14" s="8"/>
+      <c r="DH14" s="8"/>
+      <c r="DI14" s="8"/>
+      <c r="DJ14" s="8"/>
+      <c r="DK14" s="8"/>
+      <c r="DL14" s="8"/>
+      <c r="DM14" s="8"/>
+      <c r="DN14" s="8"/>
+      <c r="DO14" s="8"/>
+      <c r="DP14" s="8"/>
+      <c r="DQ14" s="8"/>
+      <c r="DR14" s="8"/>
+      <c r="DS14" s="8"/>
+      <c r="DT14" s="8"/>
     </row>
-    <row r="15" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3627,8 +4229,31 @@
       <c r="CU15" s="8"/>
       <c r="CV15" s="8"/>
       <c r="CW15" s="8"/>
+      <c r="CX15" s="8"/>
+      <c r="CY15" s="8"/>
+      <c r="CZ15" s="8"/>
+      <c r="DA15" s="8"/>
+      <c r="DB15" s="8"/>
+      <c r="DC15" s="8"/>
+      <c r="DD15" s="8"/>
+      <c r="DE15" s="8"/>
+      <c r="DF15" s="8"/>
+      <c r="DG15" s="8"/>
+      <c r="DH15" s="8"/>
+      <c r="DI15" s="8"/>
+      <c r="DJ15" s="8"/>
+      <c r="DK15" s="8"/>
+      <c r="DL15" s="8"/>
+      <c r="DM15" s="8"/>
+      <c r="DN15" s="8"/>
+      <c r="DO15" s="8"/>
+      <c r="DP15" s="8"/>
+      <c r="DQ15" s="8"/>
+      <c r="DR15" s="8"/>
+      <c r="DS15" s="8"/>
+      <c r="DT15" s="8"/>
     </row>
-    <row r="16" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3730,8 +4355,31 @@
       <c r="CU16" s="8"/>
       <c r="CV16" s="8"/>
       <c r="CW16" s="8"/>
+      <c r="CX16" s="8"/>
+      <c r="CY16" s="8"/>
+      <c r="CZ16" s="8"/>
+      <c r="DA16" s="8"/>
+      <c r="DB16" s="8"/>
+      <c r="DC16" s="8"/>
+      <c r="DD16" s="8"/>
+      <c r="DE16" s="8"/>
+      <c r="DF16" s="8"/>
+      <c r="DG16" s="8"/>
+      <c r="DH16" s="8"/>
+      <c r="DI16" s="8"/>
+      <c r="DJ16" s="8"/>
+      <c r="DK16" s="8"/>
+      <c r="DL16" s="8"/>
+      <c r="DM16" s="8"/>
+      <c r="DN16" s="8"/>
+      <c r="DO16" s="8"/>
+      <c r="DP16" s="8"/>
+      <c r="DQ16" s="8"/>
+      <c r="DR16" s="8"/>
+      <c r="DS16" s="8"/>
+      <c r="DT16" s="8"/>
     </row>
-    <row r="17" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3833,8 +4481,31 @@
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
+      <c r="CX17" s="8"/>
+      <c r="CY17" s="8"/>
+      <c r="CZ17" s="8"/>
+      <c r="DA17" s="8"/>
+      <c r="DB17" s="8"/>
+      <c r="DC17" s="8"/>
+      <c r="DD17" s="8"/>
+      <c r="DE17" s="8"/>
+      <c r="DF17" s="8"/>
+      <c r="DG17" s="8"/>
+      <c r="DH17" s="8"/>
+      <c r="DI17" s="8"/>
+      <c r="DJ17" s="8"/>
+      <c r="DK17" s="8"/>
+      <c r="DL17" s="8"/>
+      <c r="DM17" s="8"/>
+      <c r="DN17" s="8"/>
+      <c r="DO17" s="8"/>
+      <c r="DP17" s="8"/>
+      <c r="DQ17" s="8"/>
+      <c r="DR17" s="8"/>
+      <c r="DS17" s="8"/>
+      <c r="DT17" s="8"/>
     </row>
-    <row r="18" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3936,8 +4607,31 @@
       <c r="CU18" s="8"/>
       <c r="CV18" s="8"/>
       <c r="CW18" s="8"/>
+      <c r="CX18" s="8"/>
+      <c r="CY18" s="8"/>
+      <c r="CZ18" s="8"/>
+      <c r="DA18" s="8"/>
+      <c r="DB18" s="8"/>
+      <c r="DC18" s="8"/>
+      <c r="DD18" s="8"/>
+      <c r="DE18" s="8"/>
+      <c r="DF18" s="8"/>
+      <c r="DG18" s="8"/>
+      <c r="DH18" s="8"/>
+      <c r="DI18" s="8"/>
+      <c r="DJ18" s="8"/>
+      <c r="DK18" s="8"/>
+      <c r="DL18" s="8"/>
+      <c r="DM18" s="8"/>
+      <c r="DN18" s="8"/>
+      <c r="DO18" s="8"/>
+      <c r="DP18" s="8"/>
+      <c r="DQ18" s="8"/>
+      <c r="DR18" s="8"/>
+      <c r="DS18" s="8"/>
+      <c r="DT18" s="8"/>
     </row>
-    <row r="19" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4039,8 +4733,31 @@
       <c r="CU19" s="8"/>
       <c r="CV19" s="8"/>
       <c r="CW19" s="8"/>
+      <c r="CX19" s="8"/>
+      <c r="CY19" s="8"/>
+      <c r="CZ19" s="8"/>
+      <c r="DA19" s="8"/>
+      <c r="DB19" s="8"/>
+      <c r="DC19" s="8"/>
+      <c r="DD19" s="8"/>
+      <c r="DE19" s="8"/>
+      <c r="DF19" s="8"/>
+      <c r="DG19" s="8"/>
+      <c r="DH19" s="8"/>
+      <c r="DI19" s="8"/>
+      <c r="DJ19" s="8"/>
+      <c r="DK19" s="8"/>
+      <c r="DL19" s="8"/>
+      <c r="DM19" s="8"/>
+      <c r="DN19" s="8"/>
+      <c r="DO19" s="8"/>
+      <c r="DP19" s="8"/>
+      <c r="DQ19" s="8"/>
+      <c r="DR19" s="8"/>
+      <c r="DS19" s="8"/>
+      <c r="DT19" s="8"/>
     </row>
-    <row r="20" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4142,8 +4859,31 @@
       <c r="CU20" s="8"/>
       <c r="CV20" s="8"/>
       <c r="CW20" s="8"/>
+      <c r="CX20" s="8"/>
+      <c r="CY20" s="8"/>
+      <c r="CZ20" s="8"/>
+      <c r="DA20" s="8"/>
+      <c r="DB20" s="8"/>
+      <c r="DC20" s="8"/>
+      <c r="DD20" s="8"/>
+      <c r="DE20" s="8"/>
+      <c r="DF20" s="8"/>
+      <c r="DG20" s="8"/>
+      <c r="DH20" s="8"/>
+      <c r="DI20" s="8"/>
+      <c r="DJ20" s="8"/>
+      <c r="DK20" s="8"/>
+      <c r="DL20" s="8"/>
+      <c r="DM20" s="8"/>
+      <c r="DN20" s="8"/>
+      <c r="DO20" s="8"/>
+      <c r="DP20" s="8"/>
+      <c r="DQ20" s="8"/>
+      <c r="DR20" s="8"/>
+      <c r="DS20" s="8"/>
+      <c r="DT20" s="8"/>
     </row>
-    <row r="21" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4245,8 +4985,31 @@
       <c r="CU21" s="8"/>
       <c r="CV21" s="8"/>
       <c r="CW21" s="8"/>
+      <c r="CX21" s="8"/>
+      <c r="CY21" s="8"/>
+      <c r="CZ21" s="8"/>
+      <c r="DA21" s="8"/>
+      <c r="DB21" s="8"/>
+      <c r="DC21" s="8"/>
+      <c r="DD21" s="8"/>
+      <c r="DE21" s="8"/>
+      <c r="DF21" s="8"/>
+      <c r="DG21" s="8"/>
+      <c r="DH21" s="8"/>
+      <c r="DI21" s="8"/>
+      <c r="DJ21" s="8"/>
+      <c r="DK21" s="8"/>
+      <c r="DL21" s="8"/>
+      <c r="DM21" s="8"/>
+      <c r="DN21" s="8"/>
+      <c r="DO21" s="8"/>
+      <c r="DP21" s="8"/>
+      <c r="DQ21" s="8"/>
+      <c r="DR21" s="8"/>
+      <c r="DS21" s="8"/>
+      <c r="DT21" s="8"/>
     </row>
-    <row r="22" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4348,8 +5111,31 @@
       <c r="CU22" s="8"/>
       <c r="CV22" s="8"/>
       <c r="CW22" s="8"/>
+      <c r="CX22" s="8"/>
+      <c r="CY22" s="8"/>
+      <c r="CZ22" s="8"/>
+      <c r="DA22" s="8"/>
+      <c r="DB22" s="8"/>
+      <c r="DC22" s="8"/>
+      <c r="DD22" s="8"/>
+      <c r="DE22" s="8"/>
+      <c r="DF22" s="8"/>
+      <c r="DG22" s="8"/>
+      <c r="DH22" s="8"/>
+      <c r="DI22" s="8"/>
+      <c r="DJ22" s="8"/>
+      <c r="DK22" s="8"/>
+      <c r="DL22" s="8"/>
+      <c r="DM22" s="8"/>
+      <c r="DN22" s="8"/>
+      <c r="DO22" s="8"/>
+      <c r="DP22" s="8"/>
+      <c r="DQ22" s="8"/>
+      <c r="DR22" s="8"/>
+      <c r="DS22" s="8"/>
+      <c r="DT22" s="8"/>
     </row>
-    <row r="23" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4451,16 +5237,290 @@
       <c r="CU23" s="8"/>
       <c r="CV23" s="8"/>
       <c r="CW23" s="8"/>
+      <c r="CX23" s="8"/>
+      <c r="CY23" s="8"/>
+      <c r="CZ23" s="8"/>
+      <c r="DA23" s="8"/>
+      <c r="DB23" s="8"/>
+      <c r="DC23" s="8"/>
+      <c r="DD23" s="8"/>
+      <c r="DE23" s="8"/>
+      <c r="DF23" s="8"/>
+      <c r="DG23" s="8"/>
+      <c r="DH23" s="8"/>
+      <c r="DI23" s="8"/>
+      <c r="DJ23" s="8"/>
+      <c r="DK23" s="8"/>
+      <c r="DL23" s="8"/>
+      <c r="DM23" s="8"/>
+      <c r="DN23" s="8"/>
+      <c r="DO23" s="8"/>
+      <c r="DP23" s="8"/>
+      <c r="DQ23" s="8"/>
+      <c r="DR23" s="8"/>
+      <c r="DS23" s="8"/>
+      <c r="DT23" s="8"/>
+    </row>
+    <row r="24" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8"/>
+      <c r="BS24" s="8"/>
+      <c r="BT24" s="8"/>
+      <c r="BU24" s="8"/>
+      <c r="BV24" s="8"/>
+      <c r="BW24" s="8"/>
+      <c r="BX24" s="8"/>
+      <c r="BY24" s="8"/>
+      <c r="BZ24" s="8"/>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="8"/>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="8"/>
+      <c r="CE24" s="8"/>
+      <c r="CF24" s="8"/>
+      <c r="CG24" s="8"/>
+      <c r="CH24" s="8"/>
+      <c r="CI24" s="8"/>
+      <c r="CJ24" s="8"/>
+      <c r="CK24" s="8"/>
+      <c r="CL24" s="8"/>
+      <c r="CM24" s="8"/>
+      <c r="CN24" s="8"/>
+      <c r="CO24" s="8"/>
+      <c r="CP24" s="8"/>
+      <c r="CQ24" s="8"/>
+      <c r="CR24" s="8"/>
+      <c r="CS24" s="8"/>
+      <c r="CT24" s="8"/>
+      <c r="CU24" s="8"/>
+      <c r="CV24" s="8"/>
+      <c r="CW24" s="8"/>
+      <c r="CX24" s="8"/>
+      <c r="CY24" s="8"/>
+      <c r="CZ24" s="8"/>
+      <c r="DA24" s="8"/>
+      <c r="DB24" s="8"/>
+      <c r="DC24" s="8"/>
+      <c r="DD24" s="8"/>
+      <c r="DE24" s="8"/>
+      <c r="DF24" s="8"/>
+      <c r="DG24" s="8"/>
+      <c r="DH24" s="8"/>
+      <c r="DI24" s="8"/>
+      <c r="DJ24" s="8"/>
+      <c r="DK24" s="8"/>
+      <c r="DL24" s="8"/>
+      <c r="DM24" s="8"/>
+      <c r="DN24" s="8"/>
+      <c r="DO24" s="8"/>
+      <c r="DP24" s="8"/>
+      <c r="DQ24" s="8"/>
+      <c r="DR24" s="8"/>
+      <c r="DS24" s="8"/>
+      <c r="DT24" s="8"/>
+    </row>
+    <row r="25" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
+      <c r="DD25" s="8"/>
+      <c r="DE25" s="8"/>
+      <c r="DF25" s="8"/>
+      <c r="DG25" s="8"/>
+      <c r="DH25" s="8"/>
+      <c r="DI25" s="8"/>
+      <c r="DJ25" s="8"/>
+      <c r="DK25" s="8"/>
+      <c r="DL25" s="8"/>
+      <c r="DM25" s="8"/>
+      <c r="DN25" s="8"/>
+      <c r="DO25" s="8"/>
+      <c r="DP25" s="8"/>
+      <c r="DQ25" s="8"/>
+      <c r="DR25" s="8"/>
+      <c r="DS25" s="8"/>
+      <c r="DT25" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BH2" r:id="rId1" xr:uid="{4A6EEFE9-F349-4007-9D2D-AF6AC80B9FFA}"/>
-    <hyperlink ref="BH5" r:id="rId2" xr:uid="{02CACAA1-A32E-4542-AFC4-400B8FB5F7DA}"/>
-    <hyperlink ref="BH6" r:id="rId3" xr:uid="{CE10E675-69B0-4B42-8F5E-535524AEF6E5}"/>
-    <hyperlink ref="BH4" r:id="rId4" xr:uid="{5A65F2F1-85B7-4BDE-914B-E5E798F153DB}"/>
-    <hyperlink ref="BH3" r:id="rId5" xr:uid="{279EF712-8D53-4388-BF47-6315A876EEE1}"/>
+    <hyperlink ref="BX2" r:id="rId1" xr:uid="{4A6EEFE9-F349-4007-9D2D-AF6AC80B9FFA}"/>
+    <hyperlink ref="BX3" r:id="rId2" xr:uid="{279EF712-8D53-4388-BF47-6315A876EEE1}"/>
+    <hyperlink ref="BX4" r:id="rId3" xr:uid="{4A0A3289-6613-4B5E-BBAD-2D089AFDBD10}"/>
+    <hyperlink ref="BX5" r:id="rId4" xr:uid="{C6AB4EB2-336C-4F2E-83B9-D4904FBD36E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/cucumber-for-appian/src/test/resources/testdata/01_SMB_End2End.xlsx
+++ b/cucumber-for-appian/src/test/resources/testdata/01_SMB_End2End.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\ORIXAutoExcel\cucumber-for-appian\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B9B08-2BD2-46D6-8EBD-6659BB4AB5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751961AA-E222-43D8-8907-F901489BA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="873" xr2:uid="{25A2403C-A232-4567-AEA7-838C07E97658}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="258">
   <si>
     <t>Passenger cars including electric vehicles</t>
   </si>
@@ -703,9 +703,6 @@
     <t>D:\ORIX_AUS\UploadDocs\Financial_Statement_Document.pdf</t>
   </si>
   <si>
-    <t>No[7]</t>
-  </si>
-  <si>
     <t>Rental Agreement</t>
   </si>
   <si>
@@ -776,36 +773,83 @@
     <t>$1,411.34</t>
   </si>
   <si>
-    <t>APP-615</t>
-  </si>
-  <si>
-    <t>SMB-00000889
-SMB-00000889</t>
-  </si>
-  <si>
-    <t>03 Feb 2026 09:01 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planting equipment</t>
-  </si>
-  <si>
-    <t>APP-616</t>
-  </si>
-  <si>
-    <t>SMB-00000890
-SMB-00000890</t>
-  </si>
-  <si>
-    <t>03 Feb 2026 09:07 PM</t>
-  </si>
-  <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>APP-659</t>
+  </si>
+  <si>
+    <t>SMB-00000952
+SMB-00000952</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 03:51 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium and heavy co... more</t>
+  </si>
+  <si>
+    <t>APP-663</t>
+  </si>
+  <si>
+    <t>SMB-00000960
+SMB-00000960</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 05:50 PM</t>
+  </si>
+  <si>
+    <t>No[7]</t>
+  </si>
+  <si>
+    <t>APP-664</t>
+  </si>
+  <si>
+    <t>SMB-00000962
+SMB-00000962</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 06:22 PM</t>
+  </si>
+  <si>
+    <t>APP-665</t>
+  </si>
+  <si>
+    <t>SMB-00000963
+SMB-00000963</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 06:25 PM</t>
+  </si>
+  <si>
+    <t>APP-673</t>
+  </si>
+  <si>
+    <t>SMB-00000974
+SMB-00000974</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 08:50 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FORD MUSTANG </t>
+  </si>
+  <si>
+    <t>APP-674</t>
+  </si>
+  <si>
+    <t>SMB-00000975
+SMB-00000975</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 08:55 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1284,95 +1328,95 @@
   <dimension ref="A1:DO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DA1" sqref="DA1"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="34" width="6.5546875" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" customWidth="1"/>
-    <col min="37" max="37" width="8.5546875" customWidth="1"/>
-    <col min="38" max="39" width="8.44140625" customWidth="1"/>
-    <col min="40" max="40" width="10.5546875" customWidth="1"/>
-    <col min="41" max="41" width="10" customWidth="1"/>
-    <col min="43" max="43" width="6.33203125" customWidth="1"/>
-    <col min="44" max="44" width="14.5546875" customWidth="1"/>
-    <col min="45" max="45" width="6.88671875" customWidth="1"/>
-    <col min="46" max="46" width="5.77734375" customWidth="1"/>
-    <col min="47" max="47" width="7.88671875" customWidth="1"/>
-    <col min="48" max="48" width="9.88671875" customWidth="1"/>
-    <col min="49" max="49" width="8.44140625" customWidth="1"/>
-    <col min="50" max="52" width="12.109375" customWidth="1"/>
-    <col min="53" max="53" width="13.6640625" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" customWidth="1"/>
-    <col min="55" max="55" width="21.33203125" customWidth="1"/>
-    <col min="56" max="56" width="12.44140625" customWidth="1"/>
-    <col min="57" max="57" width="15.88671875" customWidth="1"/>
-    <col min="58" max="58" width="21.44140625" customWidth="1"/>
-    <col min="59" max="59" width="18.6640625" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" customWidth="1"/>
-    <col min="61" max="61" width="19.109375" customWidth="1"/>
-    <col min="62" max="62" width="7.21875" customWidth="1"/>
-    <col min="63" max="63" width="7.77734375" customWidth="1"/>
-    <col min="64" max="64" width="12.6640625" customWidth="1"/>
-    <col min="65" max="65" width="10.109375" customWidth="1"/>
-    <col min="66" max="66" width="11.88671875" customWidth="1"/>
-    <col min="67" max="67" width="7.6640625" customWidth="1"/>
-    <col min="68" max="68" width="10.33203125" customWidth="1"/>
-    <col min="69" max="69" width="10.109375" customWidth="1"/>
-    <col min="70" max="70" width="12" customWidth="1"/>
-    <col min="71" max="71" width="12.109375" customWidth="1"/>
-    <col min="72" max="72" width="8.6640625" customWidth="1"/>
-    <col min="73" max="73" width="10.109375" customWidth="1"/>
-    <col min="74" max="74" width="9.21875" customWidth="1"/>
-    <col min="75" max="75" width="12.109375" customWidth="1"/>
-    <col min="76" max="76" width="13.5546875" customWidth="1"/>
-    <col min="77" max="77" width="10.109375" customWidth="1"/>
-    <col min="78" max="79" width="23.109375" customWidth="1"/>
-    <col min="80" max="80" width="7.44140625" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" customWidth="1"/>
-    <col min="82" max="82" width="8.5546875" customWidth="1"/>
-    <col min="83" max="83" width="9.6640625" customWidth="1"/>
-    <col min="84" max="84" width="13.6640625" customWidth="1"/>
-    <col min="85" max="85" width="11.109375" customWidth="1"/>
-    <col min="86" max="86" width="14.6640625" customWidth="1"/>
-    <col min="87" max="87" width="28.44140625" customWidth="1"/>
-    <col min="88" max="88" width="25.6640625" customWidth="1"/>
-    <col min="89" max="89" width="14.6640625" customWidth="1"/>
-    <col min="90" max="90" width="32.109375" customWidth="1"/>
-    <col min="91" max="103" width="14.6640625" customWidth="1"/>
-    <col min="104" max="104" width="9.21875" customWidth="1"/>
-    <col min="105" max="105" width="6.21875" customWidth="1"/>
-    <col min="106" max="118" width="14.6640625" customWidth="1"/>
-    <col min="119" max="119" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.109375"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875"/>
+    <col min="4" max="4" customWidth="true" width="4.21875"/>
+    <col min="5" max="5" customWidth="true" width="7.0"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125"/>
+    <col min="7" max="7" customWidth="true" width="12.77734375"/>
+    <col min="8" max="8" customWidth="true" width="16.33203125"/>
+    <col min="9" max="9" customWidth="true" width="9.77734375"/>
+    <col min="10" max="10" customWidth="true" width="19.33203125"/>
+    <col min="11" max="12" customWidth="true" width="8.44140625"/>
+    <col min="13" max="13" customWidth="true" width="9.5546875"/>
+    <col min="14" max="14" customWidth="true" width="17.5546875"/>
+    <col min="15" max="15" customWidth="true" width="10.77734375"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875"/>
+    <col min="17" max="17" customWidth="true" width="14.5546875"/>
+    <col min="18" max="18" customWidth="true" width="6.88671875"/>
+    <col min="19" max="19" customWidth="true" width="5.77734375"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375"/>
+    <col min="21" max="21" customWidth="true" width="12.6640625"/>
+    <col min="22" max="22" customWidth="true" width="8.33203125"/>
+    <col min="23" max="23" customWidth="true" width="11.6640625"/>
+    <col min="24" max="24" customWidth="true" width="9.109375"/>
+    <col min="25" max="25" customWidth="true" width="11.0"/>
+    <col min="26" max="26" customWidth="true" width="8.88671875"/>
+    <col min="27" max="34" customWidth="true" width="6.5546875"/>
+    <col min="35" max="35" customWidth="true" width="7.6640625"/>
+    <col min="37" max="37" customWidth="true" width="8.5546875"/>
+    <col min="38" max="39" customWidth="true" width="8.44140625"/>
+    <col min="40" max="40" customWidth="true" width="10.5546875"/>
+    <col min="41" max="41" customWidth="true" width="10.0"/>
+    <col min="43" max="43" customWidth="true" width="6.33203125"/>
+    <col min="44" max="44" customWidth="true" width="14.5546875"/>
+    <col min="45" max="45" customWidth="true" width="6.88671875"/>
+    <col min="46" max="46" customWidth="true" width="5.77734375"/>
+    <col min="47" max="47" customWidth="true" width="7.88671875"/>
+    <col min="48" max="48" customWidth="true" width="9.88671875"/>
+    <col min="49" max="49" customWidth="true" width="8.44140625"/>
+    <col min="50" max="52" customWidth="true" width="12.109375"/>
+    <col min="53" max="53" customWidth="true" width="13.6640625"/>
+    <col min="54" max="54" customWidth="true" width="15.33203125"/>
+    <col min="55" max="55" customWidth="true" width="21.33203125"/>
+    <col min="56" max="56" customWidth="true" width="12.44140625"/>
+    <col min="57" max="57" customWidth="true" width="15.88671875"/>
+    <col min="58" max="58" customWidth="true" width="21.44140625"/>
+    <col min="59" max="59" customWidth="true" width="18.6640625"/>
+    <col min="60" max="60" customWidth="true" width="18.33203125"/>
+    <col min="61" max="61" customWidth="true" width="19.109375"/>
+    <col min="62" max="62" customWidth="true" width="7.21875"/>
+    <col min="63" max="63" customWidth="true" width="7.77734375"/>
+    <col min="64" max="64" customWidth="true" width="12.6640625"/>
+    <col min="65" max="65" customWidth="true" width="10.109375"/>
+    <col min="66" max="66" customWidth="true" width="11.88671875"/>
+    <col min="67" max="67" customWidth="true" width="7.6640625"/>
+    <col min="68" max="68" customWidth="true" width="10.33203125"/>
+    <col min="69" max="69" customWidth="true" width="10.109375"/>
+    <col min="70" max="70" customWidth="true" width="12.0"/>
+    <col min="71" max="71" customWidth="true" width="12.109375"/>
+    <col min="72" max="72" customWidth="true" width="8.6640625"/>
+    <col min="73" max="73" customWidth="true" width="10.109375"/>
+    <col min="74" max="74" customWidth="true" width="9.21875"/>
+    <col min="75" max="75" customWidth="true" width="12.109375"/>
+    <col min="76" max="76" customWidth="true" width="13.5546875"/>
+    <col min="77" max="77" customWidth="true" width="10.109375"/>
+    <col min="78" max="79" customWidth="true" width="23.109375"/>
+    <col min="80" max="80" customWidth="true" width="7.44140625"/>
+    <col min="81" max="81" customWidth="true" width="10.33203125"/>
+    <col min="82" max="82" customWidth="true" width="8.5546875"/>
+    <col min="83" max="83" customWidth="true" width="9.6640625"/>
+    <col min="84" max="84" customWidth="true" width="13.6640625"/>
+    <col min="85" max="85" customWidth="true" width="11.109375"/>
+    <col min="86" max="86" customWidth="true" width="14.6640625"/>
+    <col min="87" max="87" customWidth="true" width="28.44140625"/>
+    <col min="88" max="88" customWidth="true" width="25.6640625"/>
+    <col min="89" max="89" customWidth="true" width="14.6640625"/>
+    <col min="90" max="90" customWidth="true" width="32.109375"/>
+    <col min="91" max="103" customWidth="true" width="14.6640625"/>
+    <col min="104" max="104" customWidth="true" width="9.21875"/>
+    <col min="105" max="105" customWidth="true" width="6.21875"/>
+    <col min="106" max="118" customWidth="true" width="14.6640625"/>
+    <col min="119" max="119" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:119" s="3" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -1629,16 +1673,16 @@
         <v>140</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CH1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="CI1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="CK1" s="2" t="s">
         <v>108</v>
@@ -1677,13 +1721,13 @@
         <v>150</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CX1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CZ1" s="2" t="s">
         <v>152</v>
@@ -1707,7 +1751,7 @@
         <v>161</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="DH1" s="2" t="s">
         <v>163</v>
@@ -1725,13 +1769,13 @@
         <v>170</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="DN1" s="2" t="s">
         <v>171</v>
       </c>
       <c r="DO1" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:119" s="6" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
@@ -1949,10 +1993,10 @@
         <v>109</v>
       </c>
       <c r="CL2" s="4" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="CM2" s="4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="CN2" s="4" t="s">
         <v>24</v>
@@ -1961,7 +2005,7 @@
         <v>137</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="CQ2" s="4" t="s">
         <v>174</v>
@@ -2055,7 +2099,7 @@
         <v>77</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>13</v>
@@ -2236,11 +2280,11 @@
         <v>149</v>
       </c>
       <c r="CV3" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CW3" s="9"/>
       <c r="CX3" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CY3" s="9"/>
       <c r="CZ3" s="9" t="s">
@@ -2311,7 +2355,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>86</v>
@@ -2330,7 +2374,7 @@
         <v>208</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>195</v>
@@ -2507,10 +2551,10 @@
         <v>196</v>
       </c>
       <c r="CF4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG4" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="CG4" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="CH4" s="11" t="s">
         <v>82</v>
@@ -2525,10 +2569,10 @@
         <v>109</v>
       </c>
       <c r="CL4" s="4" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="CM4" s="4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="CN4" s="4" t="s">
         <v>85</v>
@@ -2537,7 +2581,7 @@
         <v>137</v>
       </c>
       <c r="CP4" s="4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="CQ4" s="4" t="s">
         <v>174</v>
@@ -2645,13 +2689,13 @@
         <v>196</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>196</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>13</v>
@@ -2764,7 +2808,7 @@
         <v>91</v>
       </c>
       <c r="BR5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BS5" s="11" t="s">
         <v>37</v>
@@ -2802,10 +2846,10 @@
         <v>196</v>
       </c>
       <c r="CF5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG5" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="CG5" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="CH5" s="11" t="s">
         <v>82</v>
@@ -2832,16 +2876,16 @@
       </c>
       <c r="CS5" s="4"/>
       <c r="CT5" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CU5" s="9"/>
       <c r="CV5" s="9"/>
       <c r="CW5" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CX5" s="9"/>
       <c r="CY5" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CZ5" s="9" t="s">
         <v>79</v>
@@ -2853,17 +2897,17 @@
         <v>154</v>
       </c>
       <c r="DC5" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="DD5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="DE5" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="DF5" s="9"/>
       <c r="DG5" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="DH5" s="9"/>
       <c r="DI5" s="9" t="s">
@@ -2874,10 +2918,10 @@
       </c>
       <c r="DK5" s="9"/>
       <c r="DL5" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DM5" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="DN5" s="9"/>
       <c r="DO5" s="4" t="s">
